--- a/biology/Zoologie/Ariane_aimable/Ariane_aimable.xlsx
+++ b/biology/Zoologie/Ariane_aimable/Ariane_aimable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyerata amabilis
 L'Ariane aimable (Polyerata amabilis) est une espèce d'oiseaux de la famille des Trochilidae. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, ainsi que les forêts sèches mais aussi les anciennes forêts lourdement dégradées, les plantations et les jardins ruraux.
 </t>
